--- a/document/co_so_du_lieu_nhom_31.xlsx
+++ b/document/co_so_du_lieu_nhom_31.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\J2School-main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A508EEE1-2C8F-4A4A-95F5-3115CFC78C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67240C-53CF-426B-80DA-8FFF0B6B45D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="16584" windowHeight="9420" xr2:uid="{74463A8A-8549-43CD-9702-C9EAFB65584C}"/>
+    <workbookView xWindow="10080" yWindow="768" windowWidth="16584" windowHeight="10956" xr2:uid="{74463A8A-8549-43CD-9702-C9EAFB65584C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>manufacturers</t>
   </si>
@@ -97,25 +97,49 @@
   </si>
   <si>
     <t>carts</t>
+  </si>
+  <si>
+    <t>admins</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>receipts</t>
+  </si>
+  <si>
+    <t>order_time</t>
+  </si>
+  <si>
+    <t>receiver_name</t>
+  </si>
+  <si>
+    <t>receiver_phone</t>
+  </si>
+  <si>
+    <t>receiver_address</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -139,6 +163,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,13 +205,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9351AF5D-E696-4F88-B233-01071196C1CA}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,103 +544,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
